--- a/medicine/Enfance/Kindertransport/Kindertransport.xlsx
+++ b/medicine/Enfance/Kindertransport/Kindertransport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kindertransport est une opération humanitaire menée par la Grande-Bretagne neuf mois avant la Seconde Guerre mondiale et au cours de laquelle elle accueillit près de dix mille enfants principalement juifs d'Allemagne, d'Autriche, de Tchécoslovaquie et de la ville de Dantzig. Les enfants furent placés dans des familles d'accueil anglaises, des pensions et des fermes.
@@ -512,7 +524,9 @@
           <t>Circonstances</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 15 novembre 1938, soit quelques jours après les pogroms des 9 et 10 novembre 1938 (événements connus sous le nom de « nuit de Cristal »), une délégation de leaders juifs britanniques se présenta au Premier ministre britannique Neville Chamberlain. Ils demandèrent entre autres que le gouvernement britannique permît temporairement l'admission d'enfants et d'adolescents qui ré-émigreraient plus tard. La communauté juive promit de payer des garanties pour ces enfants réfugiés.
 Le cabinet britannique débattit du problème le lendemain et décida que la nation accepterait les enfants non accompagnés, depuis ceux qui étaient en bas âge jusqu'aux adolescents de moins de 17 ans. Aucune limite quant au nombre de réfugiés ne fut annoncée publiquement.
@@ -545,10 +559,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rapidement, le Mouvement pour la protection des enfants allemands, connu plus tard sous le nom de Mouvement pour les Enfants Réfugiés (MER), envoya des délégués en Allemagne et en Autriche pour étudier comment choisir, organiser et transporter les enfants. Le 25 novembre, les citoyens britanniques entendirent un appel à des familles d'accueil sur le canal radio BBC Home Service. Bientôt, quelque cinq cents offres furent reçues, et des volontaires, membres du MER, commencèrent à visiter les familles d'accueil possibles. Ils n'insistèrent pas pour qu'elles fussent elles-mêmes juives. Ils n'examinèrent pas non plus trop attentivement les motivations des familles ni ce qu'elles étaient vraiment : il suffisait que la maison eût l'air propre et que les familles semblassent respectables.
-Avant Noël 1938, Nicholas Winton, 29 ans, agent de change britannique d'origine juive allemande[1], s'apprêtait à se rendre en Suisse pour des vacances de ski mais, à la suite d'une conversation téléphonique, décida de se rendre à Prague afin d'aider un ami, Martin Blake, qui aidait des réfugiés juifs[1]. Il créa une organisation d'aide aux enfants juifs de Tchécoslovaquie séparés de leur famille par les nazis, et mit en place un bureau sur une table de salle à manger de son hôtel place Venceslas[2]. En novembre 1938, peu après la nuit de Cristal, la Chambre des communes britannique approuva une mesure qui permettrait l'entrée des réfugiés de moins de 17 ans en Angleterre, à condition d'avoir un endroit pour y demeurer et une garantie de 50 livres sterling pour un billet de retour éventuel dans leur pays d'origine[3]. Winton trouva des foyers pour les 669 enfants, dont beaucoup de parents devaient périr à Auschwitz[4]. Tout au long de l'été, il fit paraître des annonces pour trouver des familles d’accueil. Le dernier groupe, qui quitta Prague le 3 septembre 1939, fut renvoyé parce que les nazis avaient envahi la Pologne, marquant le début de la Seconde Guerre mondiale[4].
+Avant Noël 1938, Nicholas Winton, 29 ans, agent de change britannique d'origine juive allemande, s'apprêtait à se rendre en Suisse pour des vacances de ski mais, à la suite d'une conversation téléphonique, décida de se rendre à Prague afin d'aider un ami, Martin Blake, qui aidait des réfugiés juifs. Il créa une organisation d'aide aux enfants juifs de Tchécoslovaquie séparés de leur famille par les nazis, et mit en place un bureau sur une table de salle à manger de son hôtel place Venceslas. En novembre 1938, peu après la nuit de Cristal, la Chambre des communes britannique approuva une mesure qui permettrait l'entrée des réfugiés de moins de 17 ans en Angleterre, à condition d'avoir un endroit pour y demeurer et une garantie de 50 livres sterling pour un billet de retour éventuel dans leur pays d'origine. Winton trouva des foyers pour les 669 enfants, dont beaucoup de parents devaient périr à Auschwitz. Tout au long de l'été, il fit paraître des annonces pour trouver des familles d’accueil. Le dernier groupe, qui quitta Prague le 3 septembre 1939, fut renvoyé parce que les nazis avaient envahi la Pologne, marquant le début de la Seconde Guerre mondiale.
 En Allemagne, un réseau d'organisateurs fut mis en place et des volontaires y travaillèrent jour et nuit pour établir des listes de priorité de jeunes les plus menacés : adolescents enfermés dans des camps de concentration ou en danger d'arrestation, enfants polonais ou adolescents menacés de déportation, enfants dans des orphelinats juifs, enfants dont les parents étaient trop pauvres pour les garder, ou enfants avec un parent en camp de concentration. Dès que les enfants eurent été identifiés et groupés par listes, on donna à leurs tuteurs ou à leurs parents une date pour le voyage et des détails pour le départ.
 À leur arrivée dans un port de Grande-Bretagne, les Kinder pour lesquels des familles adoptives n'avaient pas encore été prévues furent abrités dans des centres d'hébergement temporaires, par exemple des camps de vacances d'été comme Dover Court et Pakefield. Trouver des familles adoptives n'était pas toujours facile et le fait d'être choisi pour l'une d'elles ne signifiait pas nécessairement qu'ils trouveraient enfin du réconfort et une vie normale. Même si beaucoup d'enfants furent bien traités et purent tisser des liens d'affection avec leurs hôtes britanniques, certains furent maltraités ou exploités. Certaines familles virent dans les adolescentes qu'ils prenaient une façon de se procurer une femme de ménage à peu de frais. On montra peu de sensibilité pour les besoins culturels et religieux des enfants et, dans le cas de certains, leurs traditions se trouvèrent presque effacées.
 </t>
@@ -579,7 +595,9 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier Kindertransport partit de Berlin le 1er décembre 1938 et le premier départ de Vienne eut lieu le 10 décembre. Pendant les trois premiers mois, les enfants vinrent surtout d'Allemagne, ensuite principalement d'Autriche. En mars 1939, après l'entrée de l'armée allemande en Tchécoslovaquie, des transports au départ de Prague furent mis en place en toute hâte. Des trains d'enfants juifs polonais furent aussi organisés en février et août 1939.
 Comme le gouvernement allemand avait ordonné que les évacuations ne gênassent pas le trafic des ports en Allemagne, les trains traversaient le territoire allemand et via la Belgique entraient aux Pays-Bas où ils arrivaient au port de Hoek van Holland. De là, les enfants se rendaient par ferry dans les ports britanniques de Harwich ou de Southampton.
@@ -613,7 +631,9 @@
           <t>Internement et service militaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1940, le gouvernement britannique ordonna l'internement des réfugiés de 16 à 70 ans venus des pays ennemis : on les appelait des « étrangers ennemis ». En conséquence, environ mille parmi les enfants les plus âgés furent placés dans des camps d'internement improvisés et environ quatre cents furent transportés outre-mer au Canada et en Australie. Aux jeunes hommes, en particulier aux Kinder qui remplissaient les conditions, on offrit la possibilité d'entrer dans l'armée ou dans le Corps des Pionniers Auxiliaires. Environ mille adolescents allemands et autrichiens servirent ainsi dans les forces armées britanniques, y compris les unités de combat. Plusieurs douzaines rejoignirent des formations d'élite comme les Forces Spéciales, où leurs compétences linguistiques se révélèrent précieuses.
 </t>
@@ -644,7 +664,9 @@
           <t>Sculptures</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'architecte et sculpteur Frank Meisler (1925-2018) fait partie des enfants sauvés par ce transport. Il quitte sa ville natale de Danzig à l'âge de 10 ans en 1939. Ses parents décèdent peu après à Auschwitz. Depuis 1960, il vit et travaille en Israël. Il a réalisé des images, devenues depuis la Route der Kindertransporte, dans :
 2006. Londres, Gare de Liverpool Street. Kindertransport - The Arrival (L'arrivée). À l'initiative de Charles de Galles. Il a remplacé le bronze Für das Kind de Flor Kent, placé en 2003. Cela commémorait l'arrivée des 10 000 enfants qui avaient quitté Hoek van Holland.
@@ -687,7 +709,9 @@
           <t>Présentations audiovisuelles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier film documentaire réalisé sur le Kindertransport fut My Knees Were Jumping; Remembering the Kindertransports, qui a été présenté au Festival du film de Sundance en 1996 et adapté au théâtre en 1998. La réalisatrice, Melissa Hacker, est la fille d'une Kind, la créatrice de costumes Ruth Morley.
 Into the Arms of Strangers : Stories of the Kindertransport, raconté par Judi Dench et produit par la Warner Bros. Pictures, a gagné l'Oscar du cinéma en 2001 pour la meilleure production documentaire. Il existe aussi un livret d'accompagnement du même nom. La productrice du film, Deborah Oppenheimer, est la fille d'un survivant du Kindertransport. Le réalisateur Mark Jonathan Harris a été trois fois nommé aux Oscars.
@@ -720,7 +744,9 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Frédéric Staniland, Nummer, Scrineo, coll. « Jeunesse », 2014, 311 p. (ISBN 2367401780)
 Alison Pick (trad. de l'anglais par Sophie Voillot), L'Enfant du jeudi, Éditions du Boréal, 2012, 392 p. (ISBN 9782764621516), Quatrième partie - Le Kindertransport
@@ -753,7 +779,9 @@
           <t>Autobiographies</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>(en) Meisler, Frank. On the Vistula Facing East. Deutsch, London 1996,  (ISBN 0-233-99022-4).
 (en) David, Ruth. Child of our Time: A Young Girl's Flight from the Holocaust, I.B. Tauris.
